--- a/APM files/135028723/135028723 EXPORT RT&RP Cloud Export_Clone.xlsx
+++ b/APM files/135028723/135028723 EXPORT RT&RP Cloud Export_Clone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135028723/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64895208-985D-4B43-9D0E-EDBF35D912AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0A7A58-AC5F-2A41-8227-10D78ED542CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23680" yWindow="8120" windowWidth="24300" windowHeight="14800" xr2:uid="{2547B3A6-92DE-4DC7-BA33-295CE429FBF9}"/>
   </bookViews>
@@ -619,7 +619,7 @@
   <dimension ref="A1:BA48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
